--- a/References/Layout SetUp.xlsx
+++ b/References/Layout SetUp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5462s\Desktop\Folder\CapstoneDesign\References\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6388A435-4C3B-43E8-AB47-1D59A2F07867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABECCB1-6D81-4C20-AD50-E3143CA56997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>메인페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1956,6 +1956,125 @@
       <t xml:space="preserve">
 톡방 클릭시 
 해당 톡방으로 이동</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+지역 직무 경력
+호버 형식</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>직무 서식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+프론트, 백 등등
+호버 형식 + 2차 분할</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지역 서식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>서울 경기 인천 등등
+호버 형식 + 2차 분할</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>경력 서식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+경력무관, 신입, 1~3 4~6 7~9
+10년 이상으로 분할</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2172,7 +2291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2213,6 +2332,66 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2239,63 +2418,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2607,7 +2729,7 @@
   <dimension ref="A1:Z51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+      <selection activeCell="S16" sqref="S16:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2616,90 +2738,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="45"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46"/>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="47"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="48"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="50"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="51"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2737,11 +2859,11 @@
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="4"/>
-      <c r="X4" s="23" t="s">
+      <c r="X4" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="25"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
@@ -2765,9 +2887,9 @@
       <c r="S5" s="5"/>
       <c r="T5" s="6"/>
       <c r="U5" s="7"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="28"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
@@ -2791,186 +2913,186 @@
       <c r="S6" s="8"/>
       <c r="T6" s="9"/>
       <c r="U6" s="10"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="23" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="23" t="s">
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="23" t="s">
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="23" t="s">
+      <c r="N7" s="15"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="23" t="s">
+      <c r="Q7" s="15"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25"/>
-      <c r="X7" s="32" t="s">
+      <c r="T7" s="15"/>
+      <c r="U7" s="16"/>
+      <c r="X7" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="34"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="26"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="28"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="18"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="39"/>
-      <c r="Z9" s="40"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="20"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="32" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32" t="s">
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="32" t="s">
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="32" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="32" t="s">
+      <c r="N10" s="25"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="32" t="s">
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="T10" s="33"/>
-      <c r="U10" s="34"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="26"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="38"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="39"/>
-      <c r="U12" s="40"/>
+      <c r="A12" s="30"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="32"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E13" s="11"/>
@@ -2979,6 +3101,11 @@
       <c r="N13" s="11"/>
       <c r="Q13" s="11"/>
       <c r="T13" s="11"/>
+      <c r="X13" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y13" s="15"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E14" s="12"/>
@@ -2987,6 +3114,10 @@
       <c r="N14" s="12"/>
       <c r="Q14" s="12"/>
       <c r="T14" s="12"/>
+      <c r="W14" s="11"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+      <c r="Z14" s="18"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="E15" s="13"/>
@@ -2995,6 +3126,10 @@
       <c r="N15" s="13"/>
       <c r="Q15" s="13"/>
       <c r="T15" s="13"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="20"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
@@ -3027,8 +3162,9 @@
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="4"/>
-    </row>
-    <row r="17" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="W16" s="12"/>
+    </row>
+    <row r="17" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D17" s="5"/>
       <c r="E17" s="6"/>
       <c r="F17" s="7"/>
@@ -3047,8 +3183,14 @@
       <c r="S17" s="5"/>
       <c r="T17" s="6"/>
       <c r="U17" s="7"/>
-    </row>
-    <row r="18" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="W17" s="12"/>
+      <c r="X17" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="16"/>
+    </row>
+    <row r="18" spans="4:26" x14ac:dyDescent="0.3">
       <c r="D18" s="8"/>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
@@ -3067,277 +3209,314 @@
       <c r="S18" s="8"/>
       <c r="T18" s="9"/>
       <c r="U18" s="10"/>
-    </row>
-    <row r="19" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D19" s="23" t="s">
+      <c r="W18" s="12"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+      <c r="Z18" s="18"/>
+    </row>
+    <row r="19" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="23" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="23" t="s">
+      <c r="H19" s="15"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="23" t="s">
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N19" s="24"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="23" t="s">
+      <c r="N19" s="15"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="23" t="s">
+      <c r="Q19" s="15"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-    </row>
-    <row r="20" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="28"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="28"/>
-    </row>
-    <row r="21" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="29"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="30"/>
-      <c r="U21" s="31"/>
-    </row>
-    <row r="22" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D22" s="23" t="s">
+      <c r="T19" s="15"/>
+      <c r="U19" s="16"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="20"/>
+    </row>
+    <row r="20" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D20" s="23"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="18"/>
+      <c r="W20" s="12"/>
+    </row>
+    <row r="21" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D21" s="22"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="20"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y21" s="15"/>
+      <c r="Z21" s="16"/>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D22" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="23" t="s">
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="23" t="s">
+      <c r="H22" s="15"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="23" t="s">
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="N22" s="24"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="23" t="s">
+      <c r="N22" s="15"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="32" t="s">
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="T22" s="33"/>
-      <c r="U22" s="34"/>
-    </row>
-    <row r="23" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="28"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="27"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="36"/>
-      <c r="U23" s="37"/>
-    </row>
-    <row r="24" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="29"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="38"/>
-      <c r="T24" s="39"/>
-      <c r="U24" s="40"/>
-    </row>
-    <row r="25" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D25" s="32" t="s">
+      <c r="T22" s="25"/>
+      <c r="U22" s="26"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18"/>
+    </row>
+    <row r="23" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D23" s="23"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="29"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="20"/>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D24" s="22"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+      <c r="U24" s="32"/>
+      <c r="W24" s="12"/>
+    </row>
+    <row r="25" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="32" t="s">
+      <c r="E25" s="25"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="32" t="s">
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="41" t="s">
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="33"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="41" t="s">
+      <c r="N25" s="25"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="34"/>
-      <c r="S25" s="32" t="s">
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="T25" s="33"/>
-      <c r="U25" s="34"/>
-    </row>
-    <row r="26" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="36"/>
-      <c r="R26" s="37"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="36"/>
-      <c r="U26" s="37"/>
-    </row>
-    <row r="27" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D27" s="38"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="38"/>
-      <c r="T27" s="39"/>
-      <c r="U27" s="40"/>
-    </row>
-    <row r="28" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D28" s="32" t="s">
+      <c r="T25" s="25"/>
+      <c r="U25" s="26"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="16"/>
+    </row>
+    <row r="26" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28"/>
+      <c r="U26" s="29"/>
+      <c r="W26" s="13"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+      <c r="Z26" s="18"/>
+    </row>
+    <row r="27" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+      <c r="U27" s="32"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="20"/>
+    </row>
+    <row r="28" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D28" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="32" t="s">
+      <c r="E28" s="25"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="33"/>
-      <c r="I28" s="34"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="26"/>
       <c r="K28" s="11"/>
-      <c r="P28" s="32" t="s">
+      <c r="P28" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="32" t="s">
+      <c r="Q28" s="25"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="T28" s="33"/>
-      <c r="U28" s="34"/>
-    </row>
-    <row r="29" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="26"/>
+    </row>
+    <row r="29" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="29"/>
       <c r="K29" s="12"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="37"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="37"/>
-    </row>
-    <row r="30" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D30" s="38"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="29"/>
+    </row>
+    <row r="30" spans="4:26" x14ac:dyDescent="0.3">
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="32"/>
       <c r="K30" s="13"/>
-      <c r="P30" s="38"/>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="38"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="40"/>
-    </row>
-    <row r="31" spans="4:21" x14ac:dyDescent="0.3">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="32"/>
+    </row>
+    <row r="31" spans="4:26" x14ac:dyDescent="0.3">
       <c r="E31" s="11"/>
       <c r="H31" s="11"/>
       <c r="J31" s="2" t="s">
@@ -3345,22 +3524,22 @@
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="4"/>
-      <c r="P31" s="32" t="s">
+      <c r="P31" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="Q31" s="33"/>
-      <c r="R31" s="34"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="26"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="4:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:26" x14ac:dyDescent="0.3">
       <c r="E32" s="12"/>
       <c r="H32" s="12"/>
       <c r="J32" s="5"/>
       <c r="K32" s="6"/>
       <c r="L32" s="7"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="36"/>
-      <c r="R32" s="37"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="28"/>
+      <c r="R32" s="29"/>
       <c r="T32" s="12"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.3">
@@ -3369,9 +3548,9 @@
       <c r="J33" s="8"/>
       <c r="K33" s="9"/>
       <c r="L33" s="10"/>
-      <c r="P33" s="38"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="31"/>
+      <c r="R33" s="32"/>
       <c r="T33" s="13"/>
     </row>
     <row r="34" spans="4:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3385,11 +3564,11 @@
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="23" t="s">
+      <c r="J34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16"/>
       <c r="P34" s="2" t="s">
         <v>29</v>
       </c>
@@ -3408,9 +3587,9 @@
       <c r="G35" s="5"/>
       <c r="H35" s="6"/>
       <c r="I35" s="7"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="28"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="7"/>
@@ -3425,9 +3604,9 @@
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
       <c r="I36" s="10"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="20"/>
       <c r="P36" s="8"/>
       <c r="Q36" s="9"/>
       <c r="R36" s="10"/>
@@ -3436,235 +3615,235 @@
       <c r="U36" s="10"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="23" t="s">
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H37" s="24"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="14" t="s">
+      <c r="H37" s="15"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="K37" s="15"/>
-      <c r="L37" s="16"/>
-      <c r="P37" s="23" t="s">
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="P37" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="23" t="s">
+      <c r="Q37" s="15"/>
+      <c r="R37" s="16"/>
+      <c r="S37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="T37" s="24"/>
-      <c r="U37" s="25"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="16"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D38" s="26"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="19"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="27"/>
-      <c r="U38" s="28"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="39"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="18"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D39" s="29"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="30"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="30"/>
-      <c r="U39" s="31"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="19"/>
+      <c r="R39" s="20"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="19"/>
+      <c r="U39" s="20"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="23" t="s">
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="24"/>
-      <c r="I40" s="25"/>
-      <c r="P40" s="23" t="s">
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
+      <c r="P40" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="25"/>
-      <c r="S40" s="23" t="s">
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="T40" s="24"/>
-      <c r="U40" s="25"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="16"/>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D41" s="26"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="28"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="27"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="27"/>
-      <c r="U41" s="28"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="18"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="18"/>
+      <c r="S41" s="23"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="18"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="31"/>
-      <c r="P42" s="29"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="31"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="20"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="20"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="20"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D43" s="32" t="s">
+      <c r="D43" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="32" t="s">
+      <c r="E43" s="25"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="33"/>
-      <c r="I43" s="34"/>
-      <c r="P43" s="41" t="s">
+      <c r="H43" s="25"/>
+      <c r="I43" s="26"/>
+      <c r="P43" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Q43" s="33"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="23" t="s">
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="T43" s="24"/>
-      <c r="U43" s="25"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="16"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D44" s="35"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="36"/>
-      <c r="R44" s="37"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="27"/>
-      <c r="U44" s="28"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="29"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="28"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="18"/>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D45" s="38"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="40"/>
-      <c r="P45" s="38"/>
-      <c r="Q45" s="39"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="29"/>
-      <c r="T45" s="30"/>
-      <c r="U45" s="31"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="32"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="19"/>
+      <c r="U45" s="20"/>
     </row>
     <row r="46" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D46" s="14" t="s">
+      <c r="D46" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="15"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="14" t="s">
+      <c r="E46" s="35"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="16"/>
-      <c r="P46" s="32" t="s">
+      <c r="H46" s="35"/>
+      <c r="I46" s="36"/>
+      <c r="P46" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="Q46" s="33"/>
-      <c r="R46" s="34"/>
-      <c r="S46" s="41" t="s">
+      <c r="Q46" s="25"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="T46" s="33"/>
-      <c r="U46" s="34"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="26"/>
     </row>
     <row r="47" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D47" s="17"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="19"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="36"/>
-      <c r="R47" s="37"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="36"/>
-      <c r="U47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="28"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="28"/>
+      <c r="U47" s="29"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.3">
-      <c r="D48" s="20"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="22"/>
-      <c r="P48" s="38"/>
-      <c r="Q48" s="39"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="38"/>
-      <c r="T48" s="39"/>
-      <c r="U48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="42"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="31"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="30"/>
+      <c r="T48" s="31"/>
+      <c r="U48" s="32"/>
     </row>
     <row r="49" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S49" s="32" t="s">
+      <c r="S49" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="26"/>
     </row>
     <row r="50" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S50" s="35"/>
-      <c r="T50" s="36"/>
-      <c r="U50" s="37"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="28"/>
+      <c r="U50" s="29"/>
     </row>
     <row r="51" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S51" s="38"/>
-      <c r="T51" s="39"/>
-      <c r="U51" s="40"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="87">
+  <mergeCells count="92">
     <mergeCell ref="S49:U51"/>
     <mergeCell ref="X7:Z9"/>
     <mergeCell ref="G46:I48"/>
@@ -3675,6 +3854,12 @@
     <mergeCell ref="S46:U48"/>
     <mergeCell ref="M22:O24"/>
     <mergeCell ref="M25:O27"/>
+    <mergeCell ref="J16:L18"/>
+    <mergeCell ref="J19:L21"/>
+    <mergeCell ref="S7:U9"/>
+    <mergeCell ref="P10:R12"/>
+    <mergeCell ref="S10:U12"/>
+    <mergeCell ref="J7:L9"/>
     <mergeCell ref="D22:F24"/>
     <mergeCell ref="D28:F30"/>
     <mergeCell ref="D34:F36"/>
@@ -3683,7 +3868,6 @@
     <mergeCell ref="G34:I36"/>
     <mergeCell ref="D25:F27"/>
     <mergeCell ref="G25:I27"/>
-    <mergeCell ref="A7:C9"/>
     <mergeCell ref="D16:F18"/>
     <mergeCell ref="G16:I18"/>
     <mergeCell ref="D19:F21"/>
@@ -3691,16 +3875,9 @@
     <mergeCell ref="G7:I9"/>
     <mergeCell ref="D7:F9"/>
     <mergeCell ref="G10:I12"/>
-    <mergeCell ref="A10:C12"/>
     <mergeCell ref="D10:F12"/>
     <mergeCell ref="E13:E15"/>
     <mergeCell ref="H13:H15"/>
-    <mergeCell ref="J16:L18"/>
-    <mergeCell ref="J19:L21"/>
-    <mergeCell ref="S7:U9"/>
-    <mergeCell ref="P10:R12"/>
-    <mergeCell ref="S10:U12"/>
-    <mergeCell ref="J7:L9"/>
     <mergeCell ref="M7:O9"/>
     <mergeCell ref="J10:L12"/>
     <mergeCell ref="M10:O12"/>
@@ -3714,6 +3891,8 @@
     <mergeCell ref="P4:R6"/>
     <mergeCell ref="S4:U6"/>
     <mergeCell ref="X4:Z6"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="A10:C12"/>
     <mergeCell ref="P46:R48"/>
     <mergeCell ref="P16:R18"/>
     <mergeCell ref="P19:R21"/>
@@ -3752,6 +3931,11 @@
     <mergeCell ref="M16:O18"/>
     <mergeCell ref="S34:U36"/>
     <mergeCell ref="T31:T33"/>
+    <mergeCell ref="X13:Z15"/>
+    <mergeCell ref="X17:Z19"/>
+    <mergeCell ref="X21:Z23"/>
+    <mergeCell ref="X25:Z27"/>
+    <mergeCell ref="W14:W26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
